--- a/Generator/Bug reports Generator.xlsx
+++ b/Generator/Bug reports Generator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Damjan\Programiranje\QA\Praksa ITOIP\02. nedelja\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA35C9F-ABD5-4A29-9B26-7225B6C9276B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC6BE4B-6EEC-42D7-88AC-C57A27A5E1C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="5" xr2:uid="{A9D2CD7C-27BD-4068-8773-B7BB95BA6098}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="6" xr2:uid="{A9D2CD7C-27BD-4068-8773-B7BB95BA6098}"/>
   </bookViews>
   <sheets>
     <sheet name="Gen-BR-1" sheetId="26" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Gen-BR-4" sheetId="36" r:id="rId4"/>
     <sheet name="Gen-BR-5" sheetId="37" r:id="rId5"/>
     <sheet name="Gen-BR-6" sheetId="38" r:id="rId6"/>
+    <sheet name="Gen-BR-7" sheetId="39" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="87">
   <si>
     <t>Priority</t>
   </si>
@@ -281,6 +282,24 @@
   </si>
   <si>
     <t>Password does not generated but properly message is displayed</t>
+  </si>
+  <si>
+    <t>Gen-BR-7</t>
+  </si>
+  <si>
+    <t>Gen-TS2-NTC6</t>
+  </si>
+  <si>
+    <t>Inputted value is entered in textbox "Number of characters"</t>
+  </si>
+  <si>
+    <t>27.11.2022.</t>
+  </si>
+  <si>
+    <t>Input negative number (for example "-8") in textbox "Number of characters"</t>
+  </si>
+  <si>
+    <t>Password does not generated but displayed message is not properly because negative number can be integer (for example "-8")</t>
   </si>
 </sst>
 </file>
@@ -448,6 +467,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -475,11 +499,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -776,6 +795,54 @@
         <a:xfrm>
           <a:off x="5353051" y="2914650"/>
           <a:ext cx="4743450" cy="1924050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1219200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDABAB66-2F80-7450-78AB-A64443ABBC95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="39692" t="57451" r="29241" b="19990"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5410200" y="2362200"/>
+          <a:ext cx="4733925" cy="1933576"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1099,22 +1166,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -1160,10 +1227,10 @@
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="13"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -1175,10 +1242,10 @@
       <c r="C6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="12"/>
+      <c r="E6" s="15"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -1188,10 +1255,10 @@
         <v>43</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="19"/>
+      <c r="E7" s="22"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -1250,10 +1317,10 @@
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="13"/>
+      <c r="C17" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1287,22 +1354,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -1348,10 +1415,10 @@
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="13"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -1363,10 +1430,10 @@
       <c r="C6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="19"/>
+      <c r="E6" s="22"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -1378,10 +1445,10 @@
       <c r="C7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="12"/>
+      <c r="E7" s="15"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -1440,10 +1507,10 @@
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="13"/>
+      <c r="C17" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1477,22 +1544,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -1538,10 +1605,10 @@
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="13"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -1553,10 +1620,10 @@
       <c r="C6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="19"/>
+      <c r="E6" s="22"/>
     </row>
     <row r="7" spans="1:6" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -1568,10 +1635,10 @@
       <c r="C7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="12"/>
+      <c r="E7" s="15"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -1630,10 +1697,10 @@
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="13"/>
+      <c r="C17" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1667,22 +1734,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -1705,16 +1772,16 @@
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="12" t="s">
         <v>64</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="10" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1728,10 +1795,10 @@
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="13"/>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -1743,10 +1810,10 @@
       <c r="C6" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="19"/>
+      <c r="E6" s="22"/>
     </row>
     <row r="7" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -1758,10 +1825,10 @@
       <c r="C7" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="12"/>
+      <c r="E7" s="15"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -1847,22 +1914,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -1885,16 +1952,16 @@
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="12" t="s">
         <v>69</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="11" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1908,10 +1975,10 @@
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="13"/>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -1923,10 +1990,10 @@
       <c r="C6" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="19"/>
+      <c r="E6" s="22"/>
     </row>
     <row r="7" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -1938,10 +2005,10 @@
       <c r="C7" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="12"/>
+      <c r="E7" s="15"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -2014,8 +2081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9998A84D-82BB-41DB-8B43-C5EDB8365AE2}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2027,22 +2094,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -2065,16 +2132,16 @@
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="12" t="s">
         <v>70</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="11" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2088,10 +2155,10 @@
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="13"/>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -2103,10 +2170,10 @@
       <c r="C6" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="19"/>
+      <c r="E6" s="22"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -2118,10 +2185,10 @@
       <c r="C7" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="19"/>
+      <c r="E7" s="22"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -2133,10 +2200,10 @@
       <c r="C8" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="E8" s="19"/>
+      <c r="E8" s="22"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -2148,10 +2215,10 @@
       <c r="C9" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="19"/>
+      <c r="E9" s="22"/>
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -2163,10 +2230,10 @@
       <c r="C10" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="E10" s="12"/>
+      <c r="E10" s="15"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -2236,4 +2303,184 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07C7178-CD87-4650-83A4-DEE1B99973F3}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="45.42578125" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" customWidth="1"/>
+    <col min="4" max="5" width="21.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>